--- a/Parts/BOM.xlsx
+++ b/Parts/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfran\Documents\GitHub\SteadyTally\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975AEC23-7934-4A96-A86D-8AF14F0E2075}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CB5B2-FAE1-4D67-980E-948C38714EBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20238673-B875-46C2-8BB9-1F3D5CF792B1}"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="16200" windowHeight="11385" xr2:uid="{20238673-B875-46C2-8BB9-1F3D5CF792B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>8016841833479104</t>
   </si>
   <si>
-    <t>RGB LED 3W 160mW</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1895398667.html</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Pris/Node</t>
+  </si>
+  <si>
+    <t>RGB LED 5mm 160mW</t>
   </si>
 </sst>
 </file>
@@ -219,18 +219,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,9 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,32 +284,31 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -334,31 +324,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -378,29 +372,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34F8A711-E6C8-4C02-BE35-1E518145CD30}" name="Tabel2" displayName="Tabel2" ref="A1:L16" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34F8A711-E6C8-4C02-BE35-1E518145CD30}" name="Tabel2" displayName="Tabel2" ref="A1:L16" totalsRowCount="1" headerRowDxfId="19">
   <autoFilter ref="A1:L15" xr:uid="{0AA097D2-CAC9-4FEB-B11D-A64C023B37BE}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2D78791F-FC53-48C3-939A-8FAB1FED0DED}" name="Dato" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{0426CB40-0EAD-4EB2-943B-F9B670DA52FD}" name="Ordrenummer" dataDxfId="13" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2D78791F-FC53-48C3-939A-8FAB1FED0DED}" name="Dato" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{0426CB40-0EAD-4EB2-943B-F9B670DA52FD}" name="Ordrenummer" dataDxfId="17" totalsRowDxfId="7"/>
     <tableColumn id="2" xr3:uid="{9A3A8754-EB60-44B2-8914-2AD3942CD0ED}" name="Vare"/>
-    <tableColumn id="3" xr3:uid="{462219D8-E9A5-40A3-8332-43431534110A}" name="URL" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{462219D8-E9A5-40A3-8332-43431534110A}" name="URL" dataDxfId="16" totalsRowDxfId="6"/>
     <tableColumn id="4" xr3:uid="{7E462881-3770-42C5-A452-61C28CF4EAA1}" name="Antal"/>
-    <tableColumn id="5" xr3:uid="{5BD7CF97-EE7C-4999-84BF-B31C69FE8759}" name="Pris" totalsRowFunction="sum" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{72AC5B36-195B-49F8-ACD0-B6F4EE090307}" name="Pris/stk" dataDxfId="16" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{5BD7CF97-EE7C-4999-84BF-B31C69FE8759}" name="Pris" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{72AC5B36-195B-49F8-ACD0-B6F4EE090307}" name="Pris/stk" dataDxfId="14" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BDF99612-D634-45E9-BE4B-590CB4318D91}" name="Stk/Base" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{67667185-50DB-4F78-B97A-5CA1E07FEF64}" name="Stk/Node" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{BDF99612-D634-45E9-BE4B-590CB4318D91}" name="Stk/Base" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{67667185-50DB-4F78-B97A-5CA1E07FEF64}" name="Stk/Node" dataDxfId="12">
       <calculatedColumnFormula>1*O1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{72540217-5C66-452C-82C7-408DFB47A2E2}" name="Pris/Base" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{72540217-5C66-452C-82C7-408DFB47A2E2}" name="Pris/Base" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E04D4D05-F4FE-4CA2-9E83-E337F8C0430A}" name="Pris/Node" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="12" xr3:uid="{E04D4D05-F4FE-4CA2-9E83-E337F8C0430A}" name="Pris/Node" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5A569AB8-DF97-41C6-AC78-059AE3855F39}" name="Total" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{5A569AB8-DF97-41C6-AC78-059AE3855F39}" name="Total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -707,21 +701,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F5F693-D2B8-4E17-B1C5-A7F008918FC7}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="13" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" style="5" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
@@ -787,18 +781,18 @@
         <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="15">
         <v>1</v>
       </c>
     </row>
@@ -806,13 +800,13 @@
       <c r="A2" s="3">
         <v>44011</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="1">
@@ -825,17 +819,17 @@
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
         <v>24.846666666666668</v>
       </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>24.846666666666668</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>24.846666666666668</v>
       </c>
@@ -843,10 +837,10 @@
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
         <v>74.540000000000006</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>2</v>
       </c>
     </row>
@@ -854,13 +848,13 @@
       <c r="A3" s="3">
         <v>44014</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1">
@@ -873,15 +867,15 @@
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
         <v>2.7839999999999998</v>
       </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="15">
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>2.7839999999999998</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>0</v>
       </c>
@@ -894,13 +888,13 @@
       <c r="A4" s="3">
         <v>44016</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1">
@@ -913,15 +907,15 @@
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
         <v>15.818000000000001</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>15.818000000000001</v>
       </c>
@@ -934,13 +928,13 @@
       <c r="A5" s="3">
         <v>44016</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1">
@@ -953,15 +947,15 @@
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
         <v>68.83</v>
       </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="15">
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>68.83</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>0</v>
       </c>
@@ -974,13 +968,13 @@
       <c r="A6" s="3">
         <v>44016</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="1">
@@ -993,15 +987,15 @@
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
         <v>67.760000000000005</v>
       </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15">
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>67.760000000000005</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>0</v>
       </c>
@@ -1014,13 +1008,13 @@
       <c r="A7" s="3">
         <v>44016</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1">
@@ -1033,15 +1027,15 @@
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
         <v>48.07</v>
       </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="15">
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>48.07</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>0</v>
       </c>
@@ -1054,149 +1048,149 @@
       <c r="A8" s="3">
         <v>44021</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="6">
-        <v>18.100000000000001</v>
+      <c r="F8" s="14">
+        <v>18.28</v>
       </c>
       <c r="G8" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>1.81</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="15">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
-        <v>1.81</v>
-      </c>
-      <c r="K8" s="15">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="K8" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>1.81</v>
+        <v>1.8280000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44021</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="6">
-        <v>26.98</v>
+      <c r="F9" s="14">
+        <v>28.18</v>
       </c>
       <c r="G9" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>2.698</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
-        <v>2.698</v>
-      </c>
-      <c r="K9" s="15">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="K9" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>2.698</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="L9" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>8.0939999999999994</v>
+        <v>8.4540000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44021</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
-        <v>32.65</v>
+      <c r="F10" s="14">
+        <v>34.04</v>
       </c>
       <c r="G10" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>3.2649999999999997</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
         <v>0</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>3.2649999999999997</v>
+        <v>3.4039999999999999</v>
       </c>
       <c r="L10" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>6.5299999999999994</v>
+        <v>6.8079999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44021</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1">
         <v>20</v>
       </c>
-      <c r="F11" s="6">
-        <v>44.02</v>
+      <c r="F11" s="14">
+        <v>44.48</v>
       </c>
       <c r="G11" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>2.2010000000000001</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+        <v>2.2239999999999998</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
         <v>1</v>
       </c>
       <c r="J11" s="4">
@@ -1205,18 +1199,18 @@
       </c>
       <c r="K11" s="4">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>2.2010000000000001</v>
+        <v>2.2239999999999998</v>
       </c>
       <c r="L11" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>4.4020000000000001</v>
+        <v>4.4479999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44021</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1228,15 +1222,15 @@
       <c r="E12" s="1">
         <v>15</v>
       </c>
-      <c r="F12" s="6">
-        <v>26.29</v>
+      <c r="F12" s="14">
+        <v>26.56</v>
       </c>
       <c r="G12" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>1.7526666666666666</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
+        <v>1.7706666666666666</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
         <v>1</v>
       </c>
       <c r="J12" s="4">
@@ -1245,18 +1239,18 @@
       </c>
       <c r="K12" s="4">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>1.7526666666666666</v>
+        <v>1.7706666666666666</v>
       </c>
       <c r="L12" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>3.5053333333333332</v>
+        <v>3.5413333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44022</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1268,16 +1262,16 @@
       <c r="E13" s="1">
         <v>20</v>
       </c>
-      <c r="F13" s="6">
-        <f>10.2/2</f>
-        <v>5.0999999999999996</v>
+      <c r="F13" s="14">
+        <f>10.31/2</f>
+        <v>5.1550000000000002</v>
       </c>
       <c r="G13" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>0.255</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10">
+        <v>0.25775000000000003</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
         <v>2</v>
       </c>
       <c r="J13" s="4">
@@ -1286,18 +1280,18 @@
       </c>
       <c r="K13" s="4">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>0.51</v>
+        <v>0.51550000000000007</v>
       </c>
       <c r="L13" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>1.02</v>
+        <v>1.0310000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44022</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1309,16 +1303,16 @@
       <c r="E14" s="1">
         <v>20</v>
       </c>
-      <c r="F14" s="6">
-        <f>10.2/2</f>
-        <v>5.0999999999999996</v>
+      <c r="F14" s="14">
+        <f>10.31/2</f>
+        <v>5.1550000000000002</v>
       </c>
       <c r="G14" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>0.255</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10">
+        <v>0.25775000000000003</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
         <v>1</v>
       </c>
       <c r="J14" s="4">
@@ -1327,53 +1321,53 @@
       </c>
       <c r="K14" s="4">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>0.255</v>
+        <v>0.25775000000000003</v>
       </c>
       <c r="L14" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>0.51</v>
+        <v>0.51550000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44022</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
       </c>
-      <c r="F15" s="6">
-        <v>23.76</v>
+      <c r="F15" s="14">
+        <v>24.01</v>
       </c>
       <c r="G15" s="4">
         <f>Tabel2[[#This Row],[Pris]]/Tabel2[[#This Row],[Antal]]</f>
-        <v>0.23760000000000001</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
         <v>1</v>
       </c>
       <c r="J15" s="4">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Base]]</f>
-        <v>0.23760000000000001</v>
+        <v>0.24010000000000001</v>
       </c>
       <c r="K15" s="4">
         <f>Tabel2[[#This Row],[Pris/stk]]*Tabel2[[#This Row],[Stk/Node]]</f>
-        <v>0.23760000000000001</v>
+        <v>0.24010000000000001</v>
       </c>
       <c r="L15" s="4">
         <f>Tabel2[[#This Row],[Pris/Base]]*$O$1+Tabel2[[#This Row],[Pris/Node]]*$O$2</f>
-        <v>0.71279999999999999</v>
+        <v>0.72030000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1383,22 +1377,22 @@
       <c r="B16" s="1"/>
       <c r="F16" s="5">
         <f>SUBTOTAL(109,Tabel2[Pris])</f>
-        <v>548.13</v>
+        <v>551.9899999999999</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16"/>
       <c r="J16" s="5">
         <f>SUBTOTAL(109,Tabel2[Pris/Base])</f>
-        <v>217.03626666666665</v>
+        <v>217.17676666666668</v>
       </c>
       <c r="K16" s="5">
         <f>SUBTOTAL(109,Tabel2[Pris/Node])</f>
-        <v>51.583933333333341</v>
+        <v>51.894683333333333</v>
       </c>
       <c r="L16" s="4">
         <f>SUBTOTAL(109,Tabel2[Total])</f>
-        <v>320.20413333333329</v>
+        <v>320.96613333333329</v>
       </c>
     </row>
   </sheetData>
